--- a/00_source_data/drug_test_years.xlsx
+++ b/00_source_data/drug_test_years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samsloate/Desktop/720_Data_Science/Policy-Stats-Team/00_source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C481663E-933B-4A40-A649-57662739C77B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81699C67-010F-9E43-AA43-3140ED3924BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25840" yWindow="500" windowWidth="10000" windowHeight="17440" xr2:uid="{AD3B713D-23D6-DE46-8E1C-E6DFBA5FFEBF}"/>
   </bookViews>
@@ -42,51 +42,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>WV</t>
-  </si>
-  <si>
-    <t>WI</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -100,6 +55,51 @@
   </si>
   <si>
     <t>https://www.ncsl.org/research/human-services/drug-testing-and-public-assistance.aspx</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,18 +475,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -495,12 +495,12 @@
         <v>2014</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -509,12 +509,12 @@
         <v>2015</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -523,12 +523,12 @@
         <v>2011</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -537,12 +537,12 @@
         <v>2011</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -551,12 +551,12 @@
         <v>2012</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -565,12 +565,12 @@
         <v>2014</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -579,12 +579,12 @@
         <v>2014</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -593,12 +593,12 @@
         <v>2014</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -607,12 +607,12 @@
         <v>2011</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -621,12 +621,12 @@
         <v>2013</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -635,12 +635,12 @@
         <v>2012</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -649,12 +649,12 @@
         <v>2014</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -663,12 +663,12 @@
         <v>2012</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -677,12 +677,12 @@
         <v>2016</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -691,7 +691,7 @@
         <v>2015</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
